--- a/selenium_project_AOS/selen_projectAOS/Tests_AOS.xlsx
+++ b/selenium_project_AOS/selen_projectAOS/Tests_AOS.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tests_AOS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
           <t>Test 9</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Test 10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1010,6 +1015,16 @@
           <t>username</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>elad1234</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>elad1234</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
@@ -1017,6 +1032,16 @@
           <t>password</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Thbyrby145</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Thbyrby145</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1029,6 +1054,11 @@
           <t>username</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ga12347</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -1036,6 +1066,11 @@
           <t>mail</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ga12l@gmail.com</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
@@ -1043,6 +1078,11 @@
           <t>password</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ga2341</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1055,6 +1095,11 @@
           <t>username</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>eg12345678</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
@@ -1062,6 +1107,11 @@
           <t>password</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Eg2345</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1074,6 +1124,11 @@
           <t>Card</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>123456789123</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
@@ -1081,6 +1136,11 @@
           <t>CVV</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
@@ -1088,6 +1148,11 @@
           <t>Month</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
@@ -1095,6 +1160,11 @@
           <t>Year</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
@@ -1102,6 +1172,11 @@
           <t>Name</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>elad-gal</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1144,7 +1219,17 @@
           <t>V</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>V</t>
         </is>

--- a/selenium_project_AOS/selen_projectAOS/Tests_AOS.xlsx
+++ b/selenium_project_AOS/selen_projectAOS/Tests_AOS.xlsx
@@ -1056,7 +1056,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ga12347</t>
+          <t>Ga22347</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>ga12l@gmail.com</t>
+          <t>Ga22l@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>ga2341</t>
+          <t>Ga3341</t>
         </is>
       </c>
     </row>

--- a/selenium_project_AOS/selen_projectAOS/Tests_AOS.xlsx
+++ b/selenium_project_AOS/selen_projectAOS/Tests_AOS.xlsx
@@ -1056,7 +1056,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Ga22347</t>
+          <t>gal123473</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Ga22l@gmail.com</t>
+          <t>gal12l3@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ga3341</t>
+          <t>Gal23416</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>eg12345678</t>
+          <t>el12345</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eg2345</t>
+          <t>El23456</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>02</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>elad-gal</t>
+          <t>gal-elad</t>
         </is>
       </c>
     </row>
